--- a/excel_files/safeguarding rohingya.xlsx
+++ b/excel_files/safeguarding rohingya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-rohingya-malaysia\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC1886-D43B-410F-BE8D-28E859704499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC8F35-ADEC-4188-8E59-00F1D4607B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>go</t>
+  </si>
+  <si>
+    <t>MULA</t>
+  </si>
+  <si>
+    <t>PENUTUP</t>
+  </si>
+  <si>
+    <t>JOM</t>
   </si>
 </sst>
 </file>
@@ -484,30 +493,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -726,7 +735,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -744,19 +753,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -778,13 +787,13 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="17"/>
@@ -813,13 +822,13 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="17"/>
@@ -845,19 +854,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -882,7 +891,9 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -915,7 +926,9 @@
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -2906,7 +2919,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2924,19 +2937,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2958,13 +2971,13 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="17"/>
@@ -2993,13 +3006,13 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="17"/>
@@ -3025,19 +3038,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -3062,7 +3075,9 @@
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -3095,7 +3110,9 @@
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -5069,12 +5086,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5085,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD14F9BD-D8C0-4D59-AF31-2B20172082B7}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5104,19 +5121,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -5138,13 +5155,13 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="17"/>
@@ -5173,13 +5190,13 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="17"/>
@@ -5205,19 +5222,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -5242,7 +5259,9 @@
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -5275,7 +5294,9 @@
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -7249,12 +7270,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7265,7 +7286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7284,19 +7305,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -7318,13 +7339,13 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="17"/>
@@ -7353,13 +7374,13 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="17"/>
@@ -7385,19 +7406,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
